--- a/biology/Botanique/Avicennia_marina/Avicennia_marina.xlsx
+++ b/biology/Botanique/Avicennia_marina/Avicennia_marina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Avicennia marina est un arbre de la famille des Verbenaceae, ou des Acanthaceae selon la classification phylogénétique.
-Cette plante de mangrove est notamment présente en Nouvelle-Calédonie[1], mais aussi sur la côte de l'Afrique de l'Est, en Asie du Sud et en Asie du Sud-Est ainsi qu'en Australie.
-Dans les mangroves d'Asie du Sud-Est, les palétuviers noirs Avicennia marina se trouvent près de la mer, au niveau des basses eaux. Ce sont parmi les premiers arbres à former et coloniser la mangrove (avec les arbustes du genre Sonneratia)[2].
+Cette plante de mangrove est notamment présente en Nouvelle-Calédonie, mais aussi sur la côte de l'Afrique de l'Est, en Asie du Sud et en Asie du Sud-Est ainsi qu'en Australie.
+Dans les mangroves d'Asie du Sud-Est, les palétuviers noirs Avicennia marina se trouvent près de la mer, au niveau des basses eaux. Ce sont parmi les premiers arbres à former et coloniser la mangrove (avec les arbustes du genre Sonneratia).
 Ces arbres ont de longues racines qui fixent la vase et permettent à de nouveaux sédiments de se déposer derrière.
 Les Avicennias marina supportent un degré élevé de salinité. Ils supportent aussi d'être presque continuellement submergés dans l'eau salée de la mer.
-Et comme il n'y a pas d'air dans la vase salée, les racines des Avicennias marina donnent naissance à des pneumatophores, excroissances verticales exposées à l'air à marée basse pour leur permettre de respirer[3].
+Et comme il n'y a pas d'air dans la vase salée, les racines des Avicennias marina donnent naissance à des pneumatophores, excroissances verticales exposées à l'air à marée basse pour leur permettre de respirer.
 </t>
         </is>
       </c>
@@ -516,10 +528,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres palétuviers, cette espèce contribue à la fixation des sédiments et du trait de côte. 
-Les racines de cette plante, en complément du travail de crabes fouisseurs tels que Uca vocans, réoxygènent en permanence le sédiment vaseux et modifient le cycle du soufre et du carbone en contribuant à la biogéochimie des sulfures[4].
+Les racines de cette plante, en complément du travail de crabes fouisseurs tels que Uca vocans, réoxygènent en permanence le sédiment vaseux et modifient le cycle du soufre et du carbone en contribuant à la biogéochimie des sulfures.
 </t>
         </is>
       </c>
